--- a/Question Sheet/MyQuestionList.xlsx
+++ b/Question Sheet/MyQuestionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27540" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="500" windowWidth="27540" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4091,55 +4091,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">DP recursion; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Must consider negative exponent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x^(-p) == 1/(x^(p))</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Factorial Trailing Zeros</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5560,6 +5511,55 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> return a list of strings that can transform from curr to another word in one step</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DP recursion; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Must consider negative exponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x^(-p) == 1/(x^(p));  Do not try to solve problem by a single method, try using a major method to take care of negative power case.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6418,28 +6418,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6449,6 +6440,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7070,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -7110,7 +7110,7 @@
         <v>372</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>300</v>
@@ -7119,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="71" customHeight="1">
@@ -7157,10 +7157,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="232">
@@ -7171,21 +7171,21 @@
         <v>425</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="64" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>466</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>467</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57">
@@ -7216,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="138" customHeight="1">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56" customHeight="1">
@@ -7246,7 +7246,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="56" customHeight="1">
@@ -7297,19 +7297,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="68" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="102" customHeight="1">
@@ -7332,15 +7332,15 @@
     <row r="17" spans="1:6" s="9" customFormat="1" ht="102" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="164">
@@ -7357,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" ht="274" customHeight="1">
@@ -7365,20 +7365,20 @@
         <v>385</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>384</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="31" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="56" customHeight="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75" customHeight="1">
       <c r="B20" s="58" t="s">
         <v>162</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="105">
@@ -7413,7 +7413,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="116" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="65" t="s">
         <v>308</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -7430,7 +7430,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="50" t="s">
         <v>427</v>
       </c>
@@ -7448,7 +7448,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" ht="57">
-      <c r="A24" s="68"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="51" t="s">
         <v>23</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="76">
-      <c r="A25" s="68"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="52" t="s">
         <v>461</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="114">
-      <c r="A26" s="68"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="48" t="s">
         <v>47</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="9" customFormat="1" ht="66" customHeight="1">
@@ -7520,7 +7520,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1" ht="190">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="71" t="s">
         <v>345</v>
       </c>
       <c r="B28" s="61" t="s">
@@ -7536,11 +7536,11 @@
         <v>3</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="56" customHeight="1">
-      <c r="A29" s="64"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="49" t="s">
         <v>195</v>
       </c>
@@ -7558,7 +7558,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1" ht="139">
-      <c r="A30" s="64"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="52" t="s">
         <v>453</v>
       </c>
@@ -7576,7 +7576,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" ht="354">
-      <c r="A31" s="64"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="60" t="s">
         <v>457</v>
       </c>
@@ -7590,11 +7590,11 @@
         <v>2</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A32" s="64"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="50" t="s">
         <v>172</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A33" s="64"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="49" t="s">
         <v>74</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A34" s="64"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="43" t="s">
         <v>171</v>
       </c>
@@ -7646,7 +7646,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="288">
-      <c r="A35" s="64"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="58" t="s">
         <v>451</v>
       </c>
@@ -7664,7 +7664,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="190">
-      <c r="A36" s="64"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="58" t="s">
         <v>262</v>
       </c>
@@ -7682,7 +7682,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A37" s="64"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="49" t="s">
         <v>257</v>
       </c>
@@ -7700,7 +7700,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="122">
-      <c r="A38" s="64"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="58" t="s">
         <v>340</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" ht="119" customHeight="1">
-      <c r="A39" s="64"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="49" t="s">
         <v>95</v>
       </c>
@@ -7736,7 +7736,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A40" s="64"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="48" t="s">
         <v>97</v>
       </c>
@@ -7754,7 +7754,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A41" s="64"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="48" t="s">
         <v>274</v>
       </c>
@@ -7772,12 +7772,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="9" customFormat="1" ht="133">
-      <c r="A42" s="64"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="49" t="s">
         <v>248</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D42" s="46" t="s">
         <v>359</v>
@@ -7786,11 +7786,11 @@
         <v>3</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="9" customFormat="1" ht="86" customHeight="1">
-      <c r="A43" s="64"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="43" t="s">
         <v>358</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="9" customFormat="1" ht="149" customHeight="1">
-      <c r="A44" s="64"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="48" t="s">
         <v>297</v>
       </c>
@@ -7826,7 +7826,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="190">
-      <c r="A45" s="64"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="58" t="s">
         <v>182</v>
       </c>
@@ -7840,11 +7840,11 @@
         <v>4</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="9" customFormat="1" ht="133">
-      <c r="A46" s="65"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="58" t="s">
         <v>20</v>
       </c>
@@ -7862,7 +7862,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="65" t="s">
         <v>310</v>
       </c>
       <c r="B47" s="59" t="s">
@@ -7882,7 +7882,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="399">
-      <c r="A48" s="68"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="58" t="s">
         <v>437</v>
       </c>
@@ -7900,7 +7900,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="9" customFormat="1" ht="72" customHeight="1">
-      <c r="A49" s="68"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="49" t="s">
         <v>150</v>
       </c>
@@ -7918,7 +7918,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="9" customFormat="1" ht="101" customHeight="1">
-      <c r="A50" s="68"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="49" t="s">
         <v>380</v>
       </c>
@@ -7936,7 +7936,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="9" customFormat="1" ht="76">
-      <c r="A51" s="68"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="52" t="s">
         <v>287</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1" ht="78" customHeight="1">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="65" t="s">
         <v>319</v>
       </c>
       <c r="B53" s="53" t="s">
@@ -7986,7 +7986,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1" ht="78" customHeight="1">
-      <c r="A54" s="68"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="48" t="s">
         <v>60</v>
       </c>
@@ -8000,7 +8000,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="9" customFormat="1" ht="78" customHeight="1">
-      <c r="A55" s="68"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="53" t="s">
         <v>59</v>
       </c>
@@ -8014,7 +8014,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="144" customHeight="1">
-      <c r="A56" s="68"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="10" t="s">
         <v>101</v>
       </c>
@@ -8032,7 +8032,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="9" customFormat="1" ht="118" customHeight="1">
-      <c r="A57" s="68"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="49" t="s">
         <v>393</v>
       </c>
@@ -8048,7 +8048,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" ht="75" customHeight="1">
-      <c r="A58" s="68"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="49" t="s">
         <v>253</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="9" customFormat="1" ht="186" customHeight="1">
-      <c r="A59" s="68"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="48" t="s">
         <v>88</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="57">
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
@@ -8133,11 +8133,11 @@
         <v>3</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="9" customFormat="1" ht="215">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="65" t="s">
         <v>335</v>
       </c>
       <c r="B63" s="48" t="s">
@@ -8157,7 +8157,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" s="8" customFormat="1" ht="152">
-      <c r="A64" s="68"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="58" t="s">
         <v>302</v>
       </c>
@@ -8189,11 +8189,11 @@
         <v>3</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="242" customHeight="1">
-      <c r="A66" s="66" t="s">
+      <c r="A66" s="65" t="s">
         <v>309</v>
       </c>
       <c r="B66" s="49" t="s">
@@ -8241,11 +8241,11 @@
         <v>3</v>
       </c>
       <c r="F68" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="188" customHeight="1">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="65" t="s">
         <v>352</v>
       </c>
       <c r="B69" s="51" t="s">
@@ -8372,7 +8372,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" ht="76" customHeight="1">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="68" t="s">
         <v>343</v>
       </c>
       <c r="B76" s="48" t="s">
@@ -8392,7 +8392,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="9" customFormat="1" ht="150" customHeight="1">
-      <c r="A77" s="72"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="54" t="s">
         <v>130</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A78" s="72"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="51" t="s">
         <v>406</v>
       </c>
@@ -8422,11 +8422,11 @@
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="9" customFormat="1" ht="125" customHeight="1">
-      <c r="A79" s="73"/>
+      <c r="A79" s="70"/>
       <c r="B79" s="43" t="s">
         <v>412</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="56" customHeight="1">
@@ -8491,7 +8491,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="56" customHeight="1">
@@ -8542,7 +8542,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="8" customFormat="1" ht="264" customHeight="1">
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="9" customFormat="1" ht="83" customHeight="1">
@@ -8584,7 +8584,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="56" customHeight="1">
-      <c r="A88" s="66" t="s">
+      <c r="A88" s="65" t="s">
         <v>342</v>
       </c>
       <c r="B88" s="49" t="s">
@@ -8597,11 +8597,11 @@
         <v>1</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="167" customHeight="1">
-      <c r="A89" s="68"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="48" t="s">
         <v>127</v>
       </c>
@@ -8619,7 +8619,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="118" customHeight="1">
-      <c r="A90" s="68"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="51" t="s">
         <v>51</v>
       </c>
@@ -8652,14 +8652,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" ht="56" customHeight="1">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
     </row>
     <row r="93" spans="1:6" ht="56" customHeight="1">
       <c r="B93" s="16" t="s">
@@ -9538,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="2:6" ht="70" customHeight="1">
@@ -9642,7 +9642,7 @@
         <v>423</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="2:6" ht="56" customHeight="1"/>
@@ -9669,16 +9669,16 @@
     <row r="180" ht="56" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A28:A46"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A53:A60"/>
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A28:A46"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A53:A60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Question Sheet/MyQuestionList.xlsx
+++ b/Question Sheet/MyQuestionList.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="500" windowWidth="27540" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="500" windowWidth="27540" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Before" sheetId="1" r:id="rId1"/>
+    <sheet name="Need Review" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="508">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5562,6 +5563,13 @@
       <t>x^(-p) == 1/(x^(p));  Do not try to solve problem by a single method, try using a major method to take care of negative power case.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array &amp; Bit</t>
   </si>
 </sst>
 </file>
@@ -5941,8 +5949,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6418,19 +6434,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6442,17 +6467,8 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="287">
+  <cellStyles count="295">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -6597,6 +6613,10 @@
     <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -6740,6 +6760,10 @@
     <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7070,8 +7094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -7413,7 +7437,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="116" customHeight="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>308</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -7430,7 +7454,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="50" t="s">
         <v>427</v>
       </c>
@@ -7448,7 +7472,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" ht="57">
-      <c r="A24" s="66"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="51" t="s">
         <v>23</v>
       </c>
@@ -7466,7 +7490,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="76">
-      <c r="A25" s="66"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="52" t="s">
         <v>461</v>
       </c>
@@ -7484,7 +7508,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="114">
-      <c r="A26" s="66"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="48" t="s">
         <v>47</v>
       </c>
@@ -7520,7 +7544,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1" ht="190">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="63" t="s">
         <v>345</v>
       </c>
       <c r="B28" s="61" t="s">
@@ -7540,7 +7564,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="56" customHeight="1">
-      <c r="A29" s="72"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="49" t="s">
         <v>195</v>
       </c>
@@ -7558,7 +7582,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1" ht="139">
-      <c r="A30" s="72"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="52" t="s">
         <v>453</v>
       </c>
@@ -7576,7 +7600,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" ht="354">
-      <c r="A31" s="72"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="60" t="s">
         <v>457</v>
       </c>
@@ -7594,7 +7618,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A32" s="72"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="50" t="s">
         <v>172</v>
       </c>
@@ -7610,7 +7634,7 @@
       <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A33" s="72"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="49" t="s">
         <v>74</v>
       </c>
@@ -7628,7 +7652,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A34" s="72"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="43" t="s">
         <v>171</v>
       </c>
@@ -7646,7 +7670,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="288">
-      <c r="A35" s="72"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="58" t="s">
         <v>451</v>
       </c>
@@ -7664,7 +7688,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="190">
-      <c r="A36" s="72"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="58" t="s">
         <v>262</v>
       </c>
@@ -7682,7 +7706,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" ht="56" customHeight="1">
-      <c r="A37" s="72"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="49" t="s">
         <v>257</v>
       </c>
@@ -7700,7 +7724,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="122">
-      <c r="A38" s="72"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="58" t="s">
         <v>340</v>
       </c>
@@ -7718,7 +7742,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" ht="119" customHeight="1">
-      <c r="A39" s="72"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="49" t="s">
         <v>95</v>
       </c>
@@ -7736,7 +7760,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A40" s="72"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="48" t="s">
         <v>97</v>
       </c>
@@ -7754,7 +7778,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A41" s="72"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="48" t="s">
         <v>274</v>
       </c>
@@ -7772,7 +7796,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="9" customFormat="1" ht="133">
-      <c r="A42" s="72"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="49" t="s">
         <v>248</v>
       </c>
@@ -7790,7 +7814,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="9" customFormat="1" ht="86" customHeight="1">
-      <c r="A43" s="72"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="43" t="s">
         <v>358</v>
       </c>
@@ -7808,7 +7832,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="9" customFormat="1" ht="149" customHeight="1">
-      <c r="A44" s="72"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="48" t="s">
         <v>297</v>
       </c>
@@ -7826,7 +7850,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="190">
-      <c r="A45" s="72"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="58" t="s">
         <v>182</v>
       </c>
@@ -7844,7 +7868,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="9" customFormat="1" ht="133">
-      <c r="A46" s="73"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="58" t="s">
         <v>20</v>
       </c>
@@ -7862,7 +7886,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="66" t="s">
         <v>310</v>
       </c>
       <c r="B47" s="59" t="s">
@@ -7882,7 +7906,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="399">
-      <c r="A48" s="66"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="58" t="s">
         <v>437</v>
       </c>
@@ -7900,7 +7924,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="9" customFormat="1" ht="72" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="49" t="s">
         <v>150</v>
       </c>
@@ -7918,7 +7942,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="9" customFormat="1" ht="101" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="49" t="s">
         <v>380</v>
       </c>
@@ -7936,7 +7960,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="9" customFormat="1" ht="76">
-      <c r="A51" s="66"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="52" t="s">
         <v>287</v>
       </c>
@@ -7970,7 +7994,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1" ht="78" customHeight="1">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="66" t="s">
         <v>319</v>
       </c>
       <c r="B53" s="53" t="s">
@@ -7986,7 +8010,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1" ht="78" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="48" t="s">
         <v>60</v>
       </c>
@@ -8000,7 +8024,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="9" customFormat="1" ht="78" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="53" t="s">
         <v>59</v>
       </c>
@@ -8014,7 +8038,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="144" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="10" t="s">
         <v>101</v>
       </c>
@@ -8032,7 +8056,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="9" customFormat="1" ht="118" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="49" t="s">
         <v>393</v>
       </c>
@@ -8048,7 +8072,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" ht="75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="49" t="s">
         <v>253</v>
       </c>
@@ -8066,7 +8090,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="9" customFormat="1" ht="186" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="48" t="s">
         <v>88</v>
       </c>
@@ -8137,7 +8161,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="9" customFormat="1" ht="215">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="66" t="s">
         <v>335</v>
       </c>
       <c r="B63" s="48" t="s">
@@ -8157,7 +8181,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" s="8" customFormat="1" ht="152">
-      <c r="A64" s="66"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="58" t="s">
         <v>302</v>
       </c>
@@ -8193,7 +8217,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" ht="242" customHeight="1">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="66" t="s">
         <v>309</v>
       </c>
       <c r="B66" s="49" t="s">
@@ -8245,7 +8269,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="188" customHeight="1">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="66" t="s">
         <v>352</v>
       </c>
       <c r="B69" s="51" t="s">
@@ -8372,7 +8396,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" s="9" customFormat="1" ht="76" customHeight="1">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="71" t="s">
         <v>343</v>
       </c>
       <c r="B76" s="48" t="s">
@@ -8392,7 +8416,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" s="9" customFormat="1" ht="150" customHeight="1">
-      <c r="A77" s="69"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="54" t="s">
         <v>130</v>
       </c>
@@ -8410,7 +8434,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" s="9" customFormat="1" ht="95">
-      <c r="A78" s="69"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>406</v>
       </c>
@@ -8426,7 +8450,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" s="9" customFormat="1" ht="125" customHeight="1">
-      <c r="A79" s="70"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="43" t="s">
         <v>412</v>
       </c>
@@ -8584,7 +8608,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="56" customHeight="1">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="66" t="s">
         <v>342</v>
       </c>
       <c r="B88" s="49" t="s">
@@ -8601,7 +8625,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="167" customHeight="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="68"/>
       <c r="B89" s="48" t="s">
         <v>127</v>
       </c>
@@ -8619,7 +8643,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="118" customHeight="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="51" t="s">
         <v>51</v>
       </c>
@@ -8652,14 +8676,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" ht="56" customHeight="1">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
     </row>
     <row r="93" spans="1:6" ht="56" customHeight="1">
       <c r="B93" s="16" t="s">
@@ -9669,16 +9693,16 @@
     <row r="180" ht="56" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A76:A79"/>
     <mergeCell ref="A28:A46"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A76:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9689,4 +9713,68 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="88.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="55" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="71" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="91" customHeight="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>